--- a/python/math/trend/50-examples-properties.xlsx
+++ b/python/math/trend/50-examples-properties.xlsx
@@ -13,7 +13,8 @@
     <sheet name="built-in" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="prop" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="alternate" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="compare" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="additional" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="compare" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="231">
   <si>
     <t xml:space="preserve">Least Square</t>
   </si>
@@ -595,6 +596,138 @@
   </si>
   <si>
     <t xml:space="preserve">Mean Squared Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xᵢ freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yᵢ freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MIN(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MIN(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MAX(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MAX(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MAX(x_sample)-MIN(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MAX(y_sample)-MIN(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MEDIAN(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MEDIAN(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MODE(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MODE(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x mode (alternative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=INDEX(x_sample, MATCH(MAX(x_freq), x_freq, 0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y mode (alternative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=INDEX(y_sample, MATCH(MAX(y_freq), y_freq, 0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x SE Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=STDEV.S(x_sample) / SQRT(COUNT(x_sample))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y SE Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=STDEV.S(y_sample) / SQRT(COUNT(y_sample))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x kurtosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=KURT(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y kurtosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=KURT(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x skewness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SKEW(x_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y skewness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SKEW(y_sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE kurtosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SQRT((24*(n*(n-2)*(n-3)))/((n+1)*(n+3)*(n-1)^2))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE skewness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SQRT((6*n*(n-1))/((n-2)*(n+1)*(n+3)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE kurtosis (gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SQRT(4*(n^2-1)*SE_s^2/((n-3)*(n+5))</t>
   </si>
   <si>
     <t xml:space="preserve">Linear Equation</t>
@@ -1176,7 +1309,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF9E9E9E"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -1190,7 +1323,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="x_observed" displayName="x_observed" ref="B7:B19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="x_freq" displayName="x_freq" ref="D7:D22" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="y_sample_2" displayName="y_sample_2" ref="C7:C22" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>
@@ -1198,7 +1339,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="x_sample" displayName="x_sample" ref="B7:B19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="x_observed" displayName="x_observed" ref="B7:B19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>
@@ -1206,7 +1347,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="y_fit" displayName="y_fit" ref="D7:D19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="x_sample" displayName="x_sample" ref="B7:B19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>
@@ -1214,7 +1355,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="y_observed" displayName="y_observed" ref="C7:C19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="x_sample_2" displayName="x_sample_2" ref="B7:B22" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>
@@ -1222,7 +1363,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="y_predicted" displayName="y_predicted" ref="D7:D19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="y_fit" displayName="y_fit" ref="D7:D19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>
@@ -1230,7 +1371,31 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="y_sample" displayName="y_sample" ref="C7:C19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="y_freq" displayName="y_freq" ref="E7:E22" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="y_observed" displayName="y_observed" ref="C7:C19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="y_predicted" displayName="y_predicted" ref="D7:D19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="y_sample" displayName="y_sample" ref="C7:C19" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>
@@ -1352,7 +1517,7 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2634,7 +2799,7 @@
       </c>
       <c r="M30" s="21" t="n">
         <f aca="false">M26/(K30*L30)</f>
-        <v>0.970427962120067</v>
+        <v>0.970427962120068</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="3"/>
@@ -2709,7 +2874,7 @@
       <c r="L33" s="24"/>
       <c r="M33" s="21" t="n">
         <f aca="false">M30^2</f>
-        <v>0.941730429664507</v>
+        <v>0.941730429664508</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="3"/>
@@ -2768,7 +2933,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="21" t="n">
         <f aca="false">1-(1-M33)*(B26-1)/(B26-1-1)</f>
-        <v>0.936433195997644</v>
+        <v>0.936433195997646</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="3"/>
@@ -2956,7 +3121,7 @@
       </c>
       <c r="D7" s="12" t="n">
         <f aca="false">$G$18+$G$17*B7</f>
-        <v>-61</v>
+        <v>-43501</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="34" t="s">
@@ -2982,7 +3147,7 @@
       </c>
       <c r="D8" s="12" t="n">
         <f aca="false">$G$18+$G$17*B8</f>
-        <v>-21</v>
+        <v>-36221</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="34" t="s">
@@ -3008,7 +3173,7 @@
       </c>
       <c r="D9" s="12" t="n">
         <f aca="false">$G$18+$G$17*B9</f>
-        <v>19</v>
+        <v>-28941</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="34" t="s">
@@ -3034,7 +3199,7 @@
       </c>
       <c r="D10" s="12" t="n">
         <f aca="false">$G$18+$G$17*B10</f>
-        <v>59</v>
+        <v>-21661</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="34" t="s">
@@ -3060,7 +3225,7 @@
       </c>
       <c r="D11" s="12" t="n">
         <f aca="false">$G$18+$G$17*B11</f>
-        <v>99</v>
+        <v>-14381</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="34" t="s">
@@ -3086,7 +3251,7 @@
       </c>
       <c r="D12" s="12" t="n">
         <f aca="false">$G$18+$G$17*B12</f>
-        <v>139</v>
+        <v>-7101</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="34" t="s">
@@ -3138,7 +3303,7 @@
       </c>
       <c r="D14" s="12" t="n">
         <f aca="false">$G$18+$G$17*B14</f>
-        <v>219</v>
+        <v>7459</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="34" t="s">
@@ -3146,7 +3311,7 @@
       </c>
       <c r="G14" s="38" t="n">
         <f aca="false">SUMSQ(x_observed-$G$12)</f>
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="40" t="s">
@@ -3164,7 +3329,7 @@
       </c>
       <c r="D15" s="12" t="n">
         <f aca="false">$G$18+$G$17*B15</f>
-        <v>259</v>
+        <v>14739</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="34" t="s">
@@ -3172,7 +3337,7 @@
       </c>
       <c r="G15" s="38" t="n">
         <f aca="false">SUMSQ(y_observed-$G$13)</f>
-        <v>309218</v>
+        <v>2500</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40" t="s">
@@ -3190,7 +3355,7 @@
       </c>
       <c r="D16" s="12" t="n">
         <f aca="false">$G$18+$G$17*B16</f>
-        <v>299</v>
+        <v>22019</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="34" t="s">
@@ -3216,7 +3381,7 @@
       </c>
       <c r="D17" s="12" t="n">
         <f aca="false">$G$18+$G$17*B17</f>
-        <v>339</v>
+        <v>29299</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="34" t="s">
@@ -3224,7 +3389,7 @@
       </c>
       <c r="G17" s="38" t="n">
         <f aca="false">G16/G14</f>
-        <v>40</v>
+        <v>7280</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40" t="s">
@@ -3242,7 +3407,7 @@
       </c>
       <c r="D18" s="12" t="n">
         <f aca="false">$G$18+$G$17*B18</f>
-        <v>379</v>
+        <v>36579</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
@@ -3250,7 +3415,7 @@
       </c>
       <c r="G18" s="38" t="n">
         <f aca="false">G13-G17*G12</f>
-        <v>-61</v>
+        <v>-43501</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="40" t="s">
@@ -3268,7 +3433,7 @@
       </c>
       <c r="D19" s="12" t="n">
         <f aca="false">$G$18+$G$17*B19</f>
-        <v>419</v>
+        <v>43859</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="34" t="s">
@@ -3276,7 +3441,7 @@
       </c>
       <c r="G19" s="38" t="n">
         <f aca="false">G14/G10</f>
-        <v>15.1666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="40" t="s">
@@ -3295,7 +3460,7 @@
       </c>
       <c r="G20" s="38" t="n">
         <f aca="false">G15/G10</f>
-        <v>25768.1666666667</v>
+        <v>208.333333333333</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="40" t="s">
@@ -3333,7 +3498,7 @@
       </c>
       <c r="G22" s="38" t="n">
         <f aca="false">SQRT(G19)</f>
-        <v>3.89444048184931</v>
+        <v>0.288675134594813</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="40" t="s">
@@ -3352,7 +3517,7 @@
       </c>
       <c r="G23" s="38" t="n">
         <f aca="false">SQRT(G20)</f>
-        <v>160.524660618444</v>
+        <v>14.4337567297406</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="40" t="s">
@@ -3371,7 +3536,7 @@
       </c>
       <c r="G24" s="38" t="n">
         <f aca="false">G21/(G22*G23)</f>
-        <v>0.970427962120068</v>
+        <v>145.6</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="40" t="s">
@@ -3390,7 +3555,7 @@
       </c>
       <c r="G25" s="41" t="n">
         <f aca="false">G24^2</f>
-        <v>0.941730429664508</v>
+        <v>21199.36</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="40" t="s">
@@ -3409,7 +3574,7 @@
       </c>
       <c r="G26" s="41" t="n">
         <f aca="false">1-(1-G25)*G10/G11</f>
-        <v>0.936433195997646</v>
+        <v>23126.4836363636</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="40" t="s">
@@ -3426,9 +3591,9 @@
       <c r="F27" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="38" t="n">
+      <c r="G27" s="38" t="e">
         <f aca="false">SUMSQ(y_observed-y_predicted)</f>
-        <v>18018</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="40" t="s">
@@ -3445,9 +3610,9 @@
       <c r="F28" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="38" t="n">
+      <c r="G28" s="38" t="e">
         <f aca="false">G27/G11</f>
-        <v>1638</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="40" t="s">
@@ -3464,9 +3629,9 @@
       <c r="F29" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="38" t="n">
+      <c r="G29" s="38" t="e">
         <f aca="false">SQRT(G28/G14)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="40" t="s">
@@ -3483,9 +3648,9 @@
       <c r="F30" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="38" t="n">
+      <c r="G30" s="38" t="e">
         <f aca="false">G17/G29</f>
-        <v>13.3333333333333</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="40" t="s">
@@ -3502,9 +3667,9 @@
       <c r="F31" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="42" t="n">
+      <c r="G31" s="42" t="e">
         <f aca="false">_xlfn.T.DIST.2T(G30,G11)</f>
-        <v>3.91117071946834E-008</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="44" t="s">
@@ -3553,7 +3718,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3861,8 +4026,8 @@
         <v>21</v>
       </c>
       <c r="G14" s="38" t="n">
-        <f aca="false" t="array" ref="G14:G14">SUMSQ(x_sample-$G$12)</f>
-        <v>182</v>
+        <f aca="false">SUMSQ(x_sample-$G$12)</f>
+        <v>1</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="40" t="s">
@@ -3887,8 +4052,8 @@
         <v>23</v>
       </c>
       <c r="G15" s="38" t="n">
-        <f aca="false" t="array" ref="G15:G15">SUMSQ(y_sample-$G$13)</f>
-        <v>309218</v>
+        <f aca="false">SUMSQ(y_sample-$G$13)</f>
+        <v>2500</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40" t="s">
@@ -4142,9 +4307,9 @@
       <c r="F27" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="38" t="n">
-        <f aca="false" t="array" ref="G27:G27">SUMSQ(y_sample-y_fit)</f>
-        <v>18018</v>
+      <c r="G27" s="38" t="e">
+        <f aca="false">SUMSQ(y_sample-y_fit)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="40" t="s">
@@ -4161,9 +4326,9 @@
       <c r="F28" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="38" t="n">
+      <c r="G28" s="38" t="e">
         <f aca="false">G27/G11</f>
-        <v>1638</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="40" t="s">
@@ -4180,9 +4345,9 @@
       <c r="F29" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="38" t="n">
+      <c r="G29" s="38" t="e">
         <f aca="false">SQRT(G28/G14)</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="40" t="s">
@@ -4199,9 +4364,9 @@
       <c r="F30" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="38" t="n">
+      <c r="G30" s="38" t="e">
         <f aca="false">G17/G29</f>
-        <v>13.3333333333333</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="40" t="s">
@@ -4218,9 +4383,9 @@
       <c r="F31" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="42" t="n">
+      <c r="G31" s="42" t="e">
         <f aca="false">_xlfn.T.DIST.2T(G30,G11)</f>
-        <v>3.91117071946834E-008</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="44" t="s">
@@ -4269,7 +4434,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5977,6 +6142,735 @@
     <tabColor rgb="FF1976D2"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="45.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="2.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C7)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="35" t="n">
+        <f aca="false">MIN(x_sample_2)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B8)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C8)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="35" t="n">
+        <f aca="false">MIN(y_sample_2)</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C9)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="35" t="n">
+        <f aca="false">MAX(x_sample_2)</f>
+        <v>12</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B10)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C10)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="35" t="n">
+        <f aca="false">MAX(y_sample_2)</f>
+        <v>485</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>69</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B11)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C11)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="35" t="n">
+        <f aca="false">MAX(x_sample_2)-MIN(x_sample_2)</f>
+        <v>12</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C12)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="35" t="n">
+        <f aca="false">MAX(y_sample_2)-MIN(y_sample_2)</f>
+        <v>480</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>137</v>
+      </c>
+      <c r="D13" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C13)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="35" t="n">
+        <f aca="false">MEDIAN(x_sample_2)</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>180</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B14)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C14)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="35" t="n">
+        <f aca="false">MEDIAN(y_sample_2)</f>
+        <v>137</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>229</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C15)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="35" t="e">
+        <f aca="false">MODE(B7:B19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="39"/>
+      <c r="J15" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>284</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B16)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C16)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="35" t="e">
+        <f aca="false">MODE(C7:C19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="39"/>
+      <c r="J16" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>345</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B17)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C17)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="35" t="n">
+        <f aca="false">INDEX(x_sample_2, MATCH(MAX(x_freq), x_freq, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>412</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C18)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="35" t="n">
+        <f aca="false">INDEX(y_sample_2, MATCH(MAX(y_freq), y_freq, 0))</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>485</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <f aca="false">COUNTIF(x_sample_2,B19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="n">
+        <f aca="false">COUNTIF(y_sample_2,C19)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="38" t="n">
+        <f aca="false">_xlfn.STDEV.S(x_sample_2) / SQRT(COUNT(x_sample_2))</f>
+        <v>1.08012344973464</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="38" t="n">
+        <f aca="false">_xlfn.STDEV.S(y_sample_2) / SQRT(COUNT(y_sample_2))</f>
+        <v>44.5215303720196</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="38" t="n">
+        <f aca="false">KURT(x_sample_2)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="38" t="n">
+        <f aca="false">KURT(y_sample_2)</f>
+        <v>-0.733703044811924</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="38" t="n">
+        <f aca="false">SKEW(x_sample_2)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="38" t="n">
+        <f aca="false">SKEW(y_sample_2)</f>
+        <v>0.695766189129513</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="38" t="n">
+        <f aca="false">COUNT(x_sample_2)</f>
+        <v>13</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="38" t="n">
+        <f aca="false">SQRT((24*(H25*(H25-2)*(H25-3)))/((H25+1)*(H25+3)*(H25-1)^2))</f>
+        <v>1.03149798605625</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="38" t="n">
+        <f aca="false">SQRT((6*H25*(H25-1))/((H25-2)*(H25+1)*(H25+3)))</f>
+        <v>0.616336052709989</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="38" t="n">
+        <f aca="false">SQRT(4*(H25^2-1)*H27^2/((H25-3)*(H25+5)))</f>
+        <v>1.1908743922773</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF0D47A1"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -6033,20 +6927,20 @@
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="45"/>
       <c r="B4" s="59" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="C4" s="60"/>
       <c r="E4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="59" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="K4" s="61"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="59" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="S4" s="61"/>
       <c r="T4" s="2"/>
@@ -6056,17 +6950,17 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="E5" s="2"/>
       <c r="I5" s="45"/>
       <c r="J5" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="M5" s="2"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="4" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="U5" s="2"/>
       <c r="Y5" s="2"/>
@@ -6083,7 +6977,7 @@
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="45"/>
       <c r="B7" s="7" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>69</v>
@@ -6091,7 +6985,7 @@
       <c r="E7" s="2"/>
       <c r="I7" s="45"/>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>69</v>
@@ -6099,7 +6993,7 @@
       <c r="M7" s="2"/>
       <c r="Q7" s="45"/>
       <c r="R7" s="7" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>69</v>
@@ -6110,7 +7004,7 @@
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="45"/>
       <c r="B8" s="62" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>5</v>
@@ -6118,7 +7012,7 @@
       <c r="E8" s="2"/>
       <c r="I8" s="45"/>
       <c r="J8" s="62" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>5</v>
@@ -6126,7 +7020,7 @@
       <c r="M8" s="2"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="62" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="S8" s="12" t="n">
         <v>5</v>
@@ -6168,7 +7062,7 @@
       <c r="E10" s="2"/>
       <c r="I10" s="45"/>
       <c r="J10" s="62" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="K10" s="12" t="n">
         <v>3</v>
@@ -6176,7 +7070,7 @@
       <c r="M10" s="2"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="62" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="S10" s="12" t="n">
         <v>3</v>
@@ -6195,7 +7089,7 @@
       <c r="M11" s="2"/>
       <c r="Q11" s="45"/>
       <c r="R11" s="62" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="S11" s="12" t="n">
         <v>2</v>
@@ -6277,7 +7171,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="34" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="G14" s="21" t="n">
         <f aca="false">SUM(B14:B26)</f>
@@ -6294,7 +7188,7 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="34" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="O14" s="21" t="n">
         <f aca="false">SUM(J14:J26)</f>
@@ -6311,7 +7205,7 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="34" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="W14" s="21" t="n">
         <f aca="false">SUM(R14:R26)</f>
@@ -6332,7 +7226,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="34" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="G15" s="21" t="n">
         <f aca="false">SUM(C14:C26)</f>
@@ -6350,7 +7244,7 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="34" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="O15" s="21" t="n">
         <f aca="false">SUM(K14:K26)</f>
@@ -6368,7 +7262,7 @@
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="34" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="W15" s="21" t="n">
         <f aca="false">SUM(S14:S26)</f>
@@ -6389,7 +7283,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="34" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="G16" s="21" t="n">
         <f aca="false">COUNT(B14:B26)</f>
@@ -6407,7 +7301,7 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="34" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="O16" s="21" t="n">
         <f aca="false">COUNT(J14:J26)</f>
@@ -6425,7 +7319,7 @@
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="34" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="W16" s="21" t="n">
         <f aca="false">COUNT(R14:R26)</f>
@@ -6446,7 +7340,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="34" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="G17" s="21" t="n">
         <f aca="false">COUNT(C14:C26)</f>
@@ -6464,7 +7358,7 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="34" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="O17" s="21" t="n">
         <f aca="false">COUNT(K14:K26)</f>
@@ -6482,7 +7376,7 @@
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="34" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="W17" s="21" t="n">
         <f aca="false">COUNT(S14:S26)</f>
@@ -6503,7 +7397,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="34" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="G18" s="21" t="n">
         <f aca="false">AVERAGE(B14:B26)</f>
@@ -6524,7 +7418,7 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="34" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="O18" s="21" t="n">
         <f aca="false">AVERAGE(J14:J26)</f>
@@ -6545,7 +7439,7 @@
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="34" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="W18" s="21" t="n">
         <f aca="false">AVERAGE(R14:R26)</f>
@@ -6569,7 +7463,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="34" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="G19" s="21" t="n">
         <f aca="false">AVERAGE(C14:C26)</f>
@@ -6590,7 +7484,7 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="34" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="O19" s="21" t="n">
         <f aca="false">AVERAGE(K14:K26)</f>
@@ -6611,7 +7505,7 @@
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="34" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="W19" s="21" t="n">
         <f aca="false">AVERAGE(S14:S26)</f>
@@ -6635,7 +7529,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="34" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="G20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(B14:B26)</f>
@@ -6656,7 +7550,7 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="34" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="O20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(J14:J26)</f>
@@ -6677,7 +7571,7 @@
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="34" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="W20" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(R14:R26)</f>
@@ -6701,7 +7595,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="34" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="G21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(C14:C26)</f>
@@ -6722,7 +7616,7 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="34" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="O21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(K14:K26)</f>
@@ -6743,7 +7637,7 @@
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="34" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="W21" s="21" t="n">
         <f aca="false">_xlfn.VAR.S(S14:S26)</f>
@@ -6767,7 +7661,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="34" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="G22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(B14:B26)</f>
@@ -6788,7 +7682,7 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="34" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="O22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(J14:J26)</f>
@@ -6809,7 +7703,7 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="34" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="W22" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(R14:R26)</f>
@@ -6833,7 +7727,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="34" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="G23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(C14:C26)</f>
@@ -6854,7 +7748,7 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="34" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="O23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(K14:K26)</f>
@@ -6875,7 +7769,7 @@
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="34" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="W23" s="21" t="n">
         <f aca="false">_xlfn.STDEV.S(S14:S26)</f>
@@ -7076,7 +7970,7 @@
       <c r="C27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="34" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="G27" s="21" t="n">
         <f aca="false">SLOPE(B14:B26,C14:C26)</f>
@@ -7091,7 +7985,7 @@
       <c r="K27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="34" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="O27" s="21" t="n">
         <f aca="false">SLOPE(J14:J26,K14:K26)</f>
@@ -7106,7 +8000,7 @@
       <c r="S27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="34" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="W27" s="21" t="n">
         <f aca="false">SLOPE(R14:R26,S14:S26)</f>

--- a/python/math/trend/50-examples-properties.xlsx
+++ b/python/math/trend/50-examples-properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="least²" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="235">
   <si>
     <t xml:space="preserve">Least Square</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Residual Calculation (yᵢ = β̅₀ + β̅₁xᵢ)</t>
   </si>
   <si>
+    <t xml:space="preserve">Regression</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
@@ -79,6 +82,12 @@
     <t xml:space="preserve">ϵᵢ²</t>
   </si>
   <si>
+    <t xml:space="preserve">ŷᵢ-ȳ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ŷᵢ-ȳ)²</t>
+  </si>
+  <si>
     <t xml:space="preserve">∑x (total)</t>
   </si>
   <si>
@@ -103,6 +112,9 @@
     <t xml:space="preserve">SSR = ∑ϵᵢ²</t>
   </si>
   <si>
+    <t xml:space="preserve">RSS = ∑(ŷᵢ-ȳ)²</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample count</t>
   </si>
   <si>
@@ -125,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">MSE = SSR/df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEE</t>
   </si>
   <si>
     <t xml:space="preserve">n</t>
@@ -554,9 +569,6 @@
   </si>
   <si>
     <t xml:space="preserve">adj. R² coeff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEE</t>
   </si>
   <si>
     <t xml:space="preserve">MSE</t>
@@ -1065,6 +1077,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1075,10 +1091,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1514,10 +1526,10 @@
     <tabColor rgb="FFBBDEFB"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1533,6 +1545,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="2" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="2.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="2.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1653,51 +1666,61 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
+      <c r="T5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
+      <c r="T6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -1753,6 +1776,14 @@
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
+      <c r="T7" s="13" t="n">
+        <f aca="false">O7-$C$30</f>
+        <v>-240</v>
+      </c>
+      <c r="U7" s="12" t="n">
+        <f aca="false">T7^2</f>
+        <v>57600</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -1808,6 +1839,14 @@
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
+      <c r="T8" s="13" t="n">
+        <f aca="false">O8-$C$30</f>
+        <v>-200</v>
+      </c>
+      <c r="U8" s="12" t="n">
+        <f aca="false">T8^2</f>
+        <v>40000</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -1863,6 +1902,14 @@
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
+      <c r="T9" s="13" t="n">
+        <f aca="false">O9-$C$30</f>
+        <v>-160</v>
+      </c>
+      <c r="U9" s="12" t="n">
+        <f aca="false">T9^2</f>
+        <v>25600</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
@@ -1918,6 +1965,14 @@
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
+      <c r="T10" s="13" t="n">
+        <f aca="false">O10-$C$30</f>
+        <v>-120</v>
+      </c>
+      <c r="U10" s="12" t="n">
+        <f aca="false">T10^2</f>
+        <v>14400</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
@@ -1973,6 +2028,14 @@
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
+      <c r="T11" s="13" t="n">
+        <f aca="false">O11-$C$30</f>
+        <v>-80</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <f aca="false">T11^2</f>
+        <v>6400</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
@@ -2028,6 +2091,14 @@
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
+      <c r="T12" s="13" t="n">
+        <f aca="false">O12-$C$30</f>
+        <v>-40</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <f aca="false">T12^2</f>
+        <v>1600</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
@@ -2083,6 +2154,14 @@
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
+      <c r="T13" s="13" t="n">
+        <f aca="false">O13-$C$30</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <f aca="false">T13^2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
@@ -2138,6 +2217,14 @@
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
+      <c r="T14" s="13" t="n">
+        <f aca="false">O14-$C$30</f>
+        <v>40</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <f aca="false">T14^2</f>
+        <v>1600</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
@@ -2193,6 +2280,14 @@
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
+      <c r="T15" s="13" t="n">
+        <f aca="false">O15-$C$30</f>
+        <v>80</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <f aca="false">T15^2</f>
+        <v>6400</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
@@ -2248,6 +2343,14 @@
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
+      <c r="T16" s="13" t="n">
+        <f aca="false">O16-$C$30</f>
+        <v>120</v>
+      </c>
+      <c r="U16" s="12" t="n">
+        <f aca="false">T16^2</f>
+        <v>14400</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
@@ -2303,6 +2406,14 @@
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
+      <c r="T17" s="13" t="n">
+        <f aca="false">O17-$C$30</f>
+        <v>160</v>
+      </c>
+      <c r="U17" s="12" t="n">
+        <f aca="false">T17^2</f>
+        <v>25600</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
@@ -2358,6 +2469,14 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
+      <c r="T18" s="13" t="n">
+        <f aca="false">O18-$C$30</f>
+        <v>200</v>
+      </c>
+      <c r="U18" s="12" t="n">
+        <f aca="false">T18^2</f>
+        <v>40000</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
@@ -2413,6 +2532,14 @@
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
+      <c r="T19" s="13" t="n">
+        <f aca="false">O19-$C$30</f>
+        <v>240</v>
+      </c>
+      <c r="U19" s="12" t="n">
+        <f aca="false">T19^2</f>
+        <v>57600</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
@@ -2438,43 +2565,46 @@
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
+      <c r="U21" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
@@ -2518,7 +2648,7 @@
         <v>7280</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
+      <c r="O22" s="18"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="18" t="n">
         <f aca="false">SUM(Q7:Q19)</f>
@@ -2526,6 +2656,10 @@
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
+      <c r="U22" s="18" t="n">
+        <f aca="false">SUM(U7:U19)</f>
+        <v>291200</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
@@ -2551,71 +2685,73 @@
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="4"/>
       <c r="E24" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
       <c r="H24" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="3"/>
@@ -2624,7 +2760,10 @@
         <f aca="false">Q22/$E$30</f>
         <v>1638</v>
       </c>
-      <c r="R25" s="4"/>
+      <c r="R25" s="20" t="n">
+        <f aca="false">SQRT(Q25)</f>
+        <v>40.4722126896961</v>
+      </c>
       <c r="S25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2647,31 +2786,30 @@
         <v>12</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="20" t="n">
+      <c r="H26" s="21" t="n">
         <f aca="false">I22/H22</f>
         <v>40</v>
       </c>
-      <c r="I26" s="21" t="n">
+      <c r="I26" s="22" t="n">
         <f aca="false">C30-H26*B30</f>
         <v>-61</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="20" t="n">
+      <c r="K26" s="21" t="n">
         <f aca="false">K22/E26</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="L26" s="21" t="n">
+      <c r="L26" s="22" t="n">
         <f aca="false">L22/F26</f>
         <v>25768.1666666667</v>
       </c>
-      <c r="M26" s="21" t="n">
+      <c r="M26" s="22" t="n">
         <f aca="false">M22/E26</f>
         <v>606.666666666667</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
@@ -2699,12 +2837,12 @@
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="4"/>
       <c r="E28" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
@@ -2712,19 +2850,19 @@
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
@@ -2732,47 +2870,47 @@
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="23"/>
       <c r="J29" s="4"/>
       <c r="K29" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
-      <c r="B30" s="20" t="n">
+      <c r="B30" s="21" t="n">
         <f aca="false">B22/B26</f>
         <v>6</v>
       </c>
-      <c r="C30" s="21" t="n">
+      <c r="C30" s="22" t="n">
         <f aca="false">C22/C26</f>
         <v>179</v>
       </c>
@@ -2789,22 +2927,22 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="20" t="n">
+      <c r="K30" s="21" t="n">
         <f aca="false">SQRT(K26)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="L30" s="21" t="n">
+      <c r="L30" s="22" t="n">
         <f aca="false">SQRT(L26)</f>
         <v>160.524660618444</v>
       </c>
-      <c r="M30" s="21" t="n">
+      <c r="M30" s="22" t="n">
         <f aca="false">M26/(K30*L30)</f>
         <v>0.970427962120068</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="23" t="n">
+      <c r="Q30" s="20" t="n">
         <f aca="false">SQRT(Q25/K22)</f>
         <v>3</v>
       </c>
@@ -2843,12 +2981,12 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="22"/>
+      <c r="K32" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="23"/>
       <c r="M32" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="3"/>
@@ -2869,10 +3007,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
       <c r="K33" s="24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L33" s="24"/>
-      <c r="M33" s="21" t="n">
+      <c r="M33" s="22" t="n">
         <f aca="false">M30^2</f>
         <v>0.941730429664508</v>
       </c>
@@ -2880,10 +3018,10 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="R33" s="25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="S33" s="4"/>
     </row>
@@ -2898,21 +3036,21 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="22"/>
+      <c r="K34" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="L34" s="23"/>
       <c r="M34" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="S34" s="4"/>
     </row>
@@ -2928,17 +3066,17 @@
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
       <c r="K35" s="24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L35" s="24"/>
-      <c r="M35" s="21" t="n">
+      <c r="M35" s="22" t="n">
         <f aca="false">1-(1-M33)*(B26-1)/(B26-1-1)</f>
         <v>0.936433195997646</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="23" t="n">
+      <c r="Q35" s="20" t="n">
         <f aca="false">H26/Q30</f>
         <v>13.3333333333333</v>
       </c>
@@ -2970,12 +3108,13 @@
       <c r="S36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="T5:U5"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="B28:C28"/>
@@ -3002,7 +3141,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3076,11 +3215,11 @@
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
@@ -3090,24 +3229,24 @@
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -3121,11 +3260,11 @@
       </c>
       <c r="D7" s="12" t="n">
         <f aca="false">$G$18+$G$17*B7</f>
-        <v>-43501</v>
+        <v>-61</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G7" s="35" t="n">
         <f aca="false">SUM(x_observed)</f>
@@ -3133,7 +3272,7 @@
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -3147,11 +3286,11 @@
       </c>
       <c r="D8" s="12" t="n">
         <f aca="false">$G$18+$G$17*B8</f>
-        <v>-36221</v>
+        <v>-21</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="34" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G8" s="35" t="n">
         <f aca="false">SUM(y_observed)</f>
@@ -3159,7 +3298,7 @@
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -3173,11 +3312,11 @@
       </c>
       <c r="D9" s="12" t="n">
         <f aca="false">$G$18+$G$17*B9</f>
-        <v>-28941</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G9" s="35" t="n">
         <f aca="false">COUNT(x_observed)</f>
@@ -3185,7 +3324,7 @@
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -3199,11 +3338,11 @@
       </c>
       <c r="D10" s="12" t="n">
         <f aca="false">$G$18+$G$17*B10</f>
-        <v>-21661</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G10" s="35" t="n">
         <f aca="false">G9-1</f>
@@ -3211,7 +3350,7 @@
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -3225,11 +3364,11 @@
       </c>
       <c r="D11" s="12" t="n">
         <f aca="false">$G$18+$G$17*B11</f>
-        <v>-14381</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="34" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G11" s="35" t="n">
         <f aca="false">G9-2</f>
@@ -3237,7 +3376,7 @@
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -3251,11 +3390,11 @@
       </c>
       <c r="D12" s="12" t="n">
         <f aca="false">$G$18+$G$17*B12</f>
-        <v>-7101</v>
+        <v>139</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G12" s="38" t="n">
         <f aca="false">AVERAGE(x_observed)</f>
@@ -3263,7 +3402,7 @@
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -3281,7 +3420,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G13" s="38" t="n">
         <f aca="false">AVERAGE(y_observed)</f>
@@ -3289,7 +3428,7 @@
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="40" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -3303,19 +3442,19 @@
       </c>
       <c r="D14" s="12" t="n">
         <f aca="false">$G$18+$G$17*B14</f>
-        <v>7459</v>
+        <v>219</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G14" s="38" t="n">
-        <f aca="false">SUMSQ(x_observed-$G$12)</f>
-        <v>1</v>
+        <f aca="false" t="array" ref="G14:G14">SUMSQ(x_observed-$G$12)</f>
+        <v>182</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="40" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -3329,19 +3468,19 @@
       </c>
       <c r="D15" s="12" t="n">
         <f aca="false">$G$18+$G$17*B15</f>
-        <v>14739</v>
+        <v>259</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="38" t="n">
-        <f aca="false">SUMSQ(y_observed-$G$13)</f>
-        <v>2500</v>
+        <f aca="false" t="array" ref="G15:G15">SUMSQ(y_observed-$G$13)</f>
+        <v>309218</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -3355,11 +3494,11 @@
       </c>
       <c r="D16" s="12" t="n">
         <f aca="false">$G$18+$G$17*B16</f>
-        <v>22019</v>
+        <v>299</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G16" s="38" t="n">
         <f aca="false">SUMPRODUCT((x_observed-$G$12),(y_observed-$G$13))</f>
@@ -3367,7 +3506,7 @@
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -3381,19 +3520,19 @@
       </c>
       <c r="D17" s="12" t="n">
         <f aca="false">$G$18+$G$17*B17</f>
-        <v>29299</v>
+        <v>339</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="34" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G17" s="38" t="n">
         <f aca="false">G16/G14</f>
-        <v>7280</v>
+        <v>40</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -3407,19 +3546,19 @@
       </c>
       <c r="D18" s="12" t="n">
         <f aca="false">$G$18+$G$17*B18</f>
-        <v>36579</v>
+        <v>379</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G18" s="38" t="n">
         <f aca="false">G13-G17*G12</f>
-        <v>-43501</v>
+        <v>-61</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="40" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -3433,19 +3572,19 @@
       </c>
       <c r="D19" s="12" t="n">
         <f aca="false">$G$18+$G$17*B19</f>
-        <v>43859</v>
+        <v>419</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G19" s="38" t="n">
         <f aca="false">G14/G10</f>
-        <v>0.0833333333333333</v>
+        <v>15.1666666666667</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="40" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -3456,15 +3595,15 @@
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="34" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G20" s="38" t="n">
         <f aca="false">G15/G10</f>
-        <v>208.333333333333</v>
+        <v>25768.1666666667</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -3475,7 +3614,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G21" s="38" t="n">
         <f aca="false">G16/G10</f>
@@ -3483,7 +3622,7 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="40" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -3494,15 +3633,15 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G22" s="38" t="n">
         <f aca="false">SQRT(G19)</f>
-        <v>0.288675134594813</v>
+        <v>3.89444048184931</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="40" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -3513,15 +3652,15 @@
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="34" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G23" s="38" t="n">
         <f aca="false">SQRT(G20)</f>
-        <v>14.4337567297406</v>
+        <v>160.524660618444</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="40" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -3532,15 +3671,15 @@
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="34" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G24" s="38" t="n">
         <f aca="false">G21/(G22*G23)</f>
-        <v>145.6</v>
+        <v>0.970427962120069</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="40" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -3551,15 +3690,15 @@
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G25" s="41" t="n">
         <f aca="false">G24^2</f>
-        <v>21199.36</v>
+        <v>0.941730429664509</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="40" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -3570,15 +3709,15 @@
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G26" s="41" t="n">
         <f aca="false">1-(1-G25)*G10/G11</f>
-        <v>23126.4836363636</v>
+        <v>0.936433195997647</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="40" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -3589,15 +3728,15 @@
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="38" t="e">
-        <f aca="false">SUMSQ(y_observed-y_predicted)</f>
-        <v>#VALUE!</v>
+        <v>105</v>
+      </c>
+      <c r="G27" s="38" t="n">
+        <f aca="false" t="array" ref="G27:G27">SUMSQ(y_observed-y_predicted)</f>
+        <v>18018</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="40" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -3608,15 +3747,15 @@
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="38" t="e">
+        <v>107</v>
+      </c>
+      <c r="G28" s="38" t="n">
         <f aca="false">G27/G11</f>
-        <v>#VALUE!</v>
+        <v>1638</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -3627,15 +3766,15 @@
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="38" t="e">
+        <v>109</v>
+      </c>
+      <c r="G29" s="38" t="n">
         <f aca="false">SQRT(G28/G14)</f>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="40" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -3646,15 +3785,15 @@
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="38" t="e">
+        <v>111</v>
+      </c>
+      <c r="G30" s="38" t="n">
         <f aca="false">G17/G29</f>
-        <v>#VALUE!</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="40" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -3665,15 +3804,15 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="42" t="e">
+        <v>63</v>
+      </c>
+      <c r="G31" s="42" t="n">
         <f aca="false">_xlfn.T.DIST.2T(G30,G11)</f>
-        <v>#VALUE!</v>
+        <v>3.91117071946834E-008</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -3717,8 +3856,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3792,11 +3931,11 @@
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
@@ -3806,24 +3945,24 @@
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J6" s="4"/>
     </row>
@@ -3841,7 +3980,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G7" s="35" t="n">
         <f aca="false">SUM(x_sample)</f>
@@ -3849,7 +3988,7 @@
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -3867,7 +4006,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="34" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G8" s="35" t="n">
         <f aca="false">SUM(y_sample)</f>
@@ -3875,7 +4014,7 @@
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -3893,7 +4032,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G9" s="35" t="n">
         <f aca="false">COUNT(x_sample)</f>
@@ -3901,7 +4040,7 @@
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="37" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -3919,7 +4058,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G10" s="35" t="n">
         <f aca="false">G9-1</f>
@@ -3927,7 +4066,7 @@
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -3945,7 +4084,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="34" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G11" s="35" t="n">
         <f aca="false">G9-1-1</f>
@@ -3953,7 +4092,7 @@
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -3971,7 +4110,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G12" s="38" t="n">
         <f aca="false">AVERAGE(x_sample)</f>
@@ -3979,7 +4118,7 @@
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -3997,7 +4136,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G13" s="38" t="n">
         <f aca="false">AVERAGE(y_sample)</f>
@@ -4005,7 +4144,7 @@
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="40" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -4023,15 +4162,15 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G14" s="38" t="n">
-        <f aca="false">SUMSQ(x_sample-$G$12)</f>
-        <v>1</v>
+        <f aca="false" t="array" ref="G14:G14">SUMSQ(x_sample-$G$12)</f>
+        <v>182</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="40" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -4049,15 +4188,15 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="34" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="38" t="n">
-        <f aca="false">SUMSQ(y_sample-$G$13)</f>
-        <v>2500</v>
+        <f aca="false" t="array" ref="G15:G15">SUMSQ(y_sample-$G$13)</f>
+        <v>309218</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="40" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -4075,7 +4214,7 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G16" s="38" t="n">
         <f aca="false">SUMPRODUCT((x_sample-$G$12),(y_sample-$G$13))</f>
@@ -4083,7 +4222,7 @@
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="40" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -4101,7 +4240,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="34" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G17" s="38" t="n">
         <f aca="false">SLOPE(y_sample,x_sample)</f>
@@ -4109,7 +4248,7 @@
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="40" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -4127,7 +4266,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="34" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G18" s="38" t="n">
         <f aca="false">INTERCEPT(y_sample,x_sample)</f>
@@ -4135,7 +4274,7 @@
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="40" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -4153,7 +4292,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="34" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G19" s="38" t="n">
         <f aca="false">_xlfn.VAR.S(x_sample)</f>
@@ -4161,7 +4300,7 @@
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="40" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -4172,7 +4311,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="34" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G20" s="38" t="n">
         <f aca="false">_xlfn.VAR.S(y_sample)</f>
@@ -4180,7 +4319,7 @@
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="40" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -4191,7 +4330,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G21" s="38" t="n">
         <f aca="false">_xlfn.COVARIANCE.S(x_sample,y_sample)</f>
@@ -4199,7 +4338,7 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="40" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -4210,7 +4349,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="34" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G22" s="38" t="n">
         <f aca="false">_xlfn.STDEV.S(x_sample)</f>
@@ -4218,7 +4357,7 @@
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -4229,7 +4368,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="34" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G23" s="38" t="n">
         <f aca="false">_xlfn.STDEV.S(y_sample)</f>
@@ -4237,7 +4376,7 @@
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -4248,7 +4387,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G24" s="38" t="n">
         <f aca="false">PEARSON(x_sample,y_sample)</f>
@@ -4256,7 +4395,7 @@
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="40" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -4267,7 +4406,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="34" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G25" s="41" t="n">
         <f aca="false">RSQ(y_sample,x_sample)</f>
@@ -4275,7 +4414,7 @@
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="40" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -4286,7 +4425,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G26" s="41" t="n">
         <f aca="false">1-(1-G25)*G10/G11</f>
@@ -4294,7 +4433,7 @@
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="40" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -4305,15 +4444,15 @@
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="38" t="e">
-        <f aca="false">SUMSQ(y_sample-y_fit)</f>
-        <v>#VALUE!</v>
+        <v>105</v>
+      </c>
+      <c r="G27" s="38" t="n">
+        <f aca="false" t="array" ref="G27:G27">SUMSQ(y_sample-y_fit)</f>
+        <v>18018</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="40" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -4324,15 +4463,15 @@
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="38" t="e">
+        <v>107</v>
+      </c>
+      <c r="G28" s="38" t="n">
         <f aca="false">G27/G11</f>
-        <v>#VALUE!</v>
+        <v>1638</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -4343,15 +4482,15 @@
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="38" t="e">
+        <v>109</v>
+      </c>
+      <c r="G29" s="38" t="n">
         <f aca="false">SQRT(G28/G14)</f>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="40" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -4362,15 +4501,15 @@
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="38" t="e">
+        <v>111</v>
+      </c>
+      <c r="G30" s="38" t="n">
         <f aca="false">G17/G29</f>
-        <v>#VALUE!</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="40" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -4381,15 +4520,15 @@
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="42" t="e">
+        <v>63</v>
+      </c>
+      <c r="G31" s="42" t="n">
         <f aca="false">_xlfn.T.DIST.2T(G30,G11)</f>
-        <v>#VALUE!</v>
+        <v>3.91117071946834E-008</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -4434,7 +4573,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4453,7 +4592,7 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="45"/>
       <c r="B2" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -4465,7 +4604,7 @@
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="45"/>
       <c r="B4" s="47" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C4" s="47"/>
       <c r="I4" s="2"/>
@@ -4473,22 +4612,22 @@
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -4501,16 +4640,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G6" s="22" t="n">
         <f aca="false">SUM(B6:B18)</f>
         <v>78</v>
       </c>
-      <c r="H6" s="21" t="n">
+      <c r="H6" s="22" t="n">
         <f aca="false">SUM(C6:C18)</f>
         <v>2327</v>
       </c>
@@ -4526,16 +4665,16 @@
         <v>12</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G7" s="22" t="n">
         <f aca="false">COUNT(B6:B18)</f>
         <v>13</v>
       </c>
-      <c r="H7" s="21" t="n">
+      <c r="H7" s="22" t="n">
         <f aca="false">COUNT(C6:C18)</f>
         <v>13</v>
       </c>
@@ -4551,16 +4690,16 @@
         <v>25</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G8" s="22" t="n">
         <f aca="false">AVERAGE(B6:B18)</f>
         <v>6</v>
       </c>
-      <c r="H8" s="21" t="n">
+      <c r="H8" s="22" t="n">
         <f aca="false">AVERAGE(C6:C18)</f>
         <v>179</v>
       </c>
@@ -4576,16 +4715,16 @@
         <v>44</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G9" s="22" t="n">
         <f aca="false">SUM(B6:B18)/COUNT(B6:B18)</f>
         <v>6</v>
       </c>
-      <c r="H9" s="21" t="n">
+      <c r="H9" s="22" t="n">
         <f aca="false">SUM(C6:C18)/COUNT(C6:C18)</f>
         <v>179</v>
       </c>
@@ -4601,16 +4740,16 @@
         <v>69</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G10" s="22" t="n">
         <f aca="false">_xlfn.VAR.S(B6:B18)</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="H10" s="21" t="n">
+      <c r="H10" s="22" t="n">
         <f aca="false">_xlfn.VAR.S(C6:C18)</f>
         <v>25768.1666666667</v>
       </c>
@@ -4626,16 +4765,16 @@
         <v>100</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G11" s="22" t="n">
         <f aca="false" t="array" ref="G11:G11">SUM((B6:B18 - G9)^2)/(COUNT(B6:B18)-1)</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="H11" s="21" t="n">
+      <c r="H11" s="22" t="n">
         <f aca="false" t="array" ref="H11:H11">SUM((C6:C18 - H9)^2)/(COUNT(C6:C18)-1)</f>
         <v>25768.1666666667</v>
       </c>
@@ -4651,16 +4790,16 @@
         <v>137</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G12" s="22" t="n">
         <f aca="false">_xlfn.STDEV.S(B6:B18)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="H12" s="21" t="n">
+      <c r="H12" s="22" t="n">
         <f aca="false">_xlfn.STDEV.S(C6:C18)</f>
         <v>160.524660618444</v>
       </c>
@@ -4676,16 +4815,16 @@
         <v>180</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G13" s="22" t="n">
         <f aca="false">SQRT(G11)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="H13" s="21" t="n">
+      <c r="H13" s="22" t="n">
         <f aca="false">SQRT(H11)</f>
         <v>160.524660618444</v>
       </c>
@@ -4701,16 +4840,16 @@
         <v>229</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G14" s="22" t="n">
         <f aca="false">G12/SQRT(G7)</f>
         <v>1.08012344973464</v>
       </c>
-      <c r="H14" s="21" t="n">
+      <c r="H14" s="22" t="n">
         <f aca="false">H12/SQRT(H7)</f>
         <v>44.5215303720196</v>
       </c>
@@ -4741,13 +4880,13 @@
         <v>345</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -4762,12 +4901,12 @@
         <v>412</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G17" s="22" t="n">
         <f aca="false">_xlfn.COVARIANCE.S(B6:B18,C6:C18)</f>
         <v>606.666666666667</v>
       </c>
@@ -4784,12 +4923,12 @@
         <v>485</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G18" s="22" t="n">
         <f aca="false" t="array" ref="G18:G18">SUM((B6:B18-G9)*(C6:C18-H9))/(COUNT(B6:B18)-1)</f>
         <v>606.666666666667</v>
       </c>
@@ -4799,12 +4938,12 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45"/>
       <c r="E19" s="34" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G19" s="22" t="n">
         <f aca="false">PEARSON(B6:B18,C6:C18)</f>
         <v>0.970427962120068</v>
       </c>
@@ -4814,15 +4953,15 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="45"/>
       <c r="B20" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E20" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="21" t="n">
+      <c r="G20" s="22" t="n">
         <f aca="false">G18/(G13*H13)</f>
         <v>0.970427962120068</v>
       </c>
@@ -4832,15 +4971,15 @@
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="45"/>
       <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E21" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="21" t="n">
+      <c r="G21" s="22" t="n">
         <f aca="false" t="array" ref="G21:G21">SUM((B6:B18 - G9)*(C6:C18 - H9))/SQRT(SUM((B6:B18 - G9)^2)*SUM((C6:C18 - H9)^2))</f>
         <v>0.970427962120068</v>
       </c>
@@ -4850,12 +4989,12 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="45"/>
       <c r="E22" s="34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G22" s="22" t="n">
         <f aca="false" t="array" ref="G22:G22">SLOPE(C6:C18,B6:B18)</f>
         <v>40</v>
       </c>
@@ -4865,18 +5004,18 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45"/>
       <c r="B23" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G23" s="22" t="n">
         <f aca="false" t="array" ref="G23:G23">SUM((B6:B18 - G9)*(C6:C18 - H9))/SUM((B6:B18 - G9)^2)</f>
         <v>40</v>
       </c>
@@ -4893,12 +5032,12 @@
         <v>-61</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G24" s="22" t="n">
         <f aca="false" t="array" ref="G24:G24">INTERCEPT(C6:C18,B6:B18)</f>
         <v>-61</v>
       </c>
@@ -4908,12 +5047,12 @@
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45"/>
       <c r="E25" s="34" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G25" s="22" t="n">
         <f aca="false">H8-G23*G8</f>
         <v>-61</v>
       </c>
@@ -4923,12 +5062,12 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="45"/>
       <c r="E26" s="34" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="21" t="n">
+        <v>66</v>
+      </c>
+      <c r="G26" s="22" t="n">
         <f aca="false" t="array" ref="G26:G26">RSQ(C6:C18,B6:B18)</f>
         <v>0.941730429664509</v>
       </c>
@@ -4937,12 +5076,12 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="45"/>
       <c r="E27" s="34" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G27" s="22" t="n">
         <f aca="false" t="array" ref="G27:G27">1-SUM((C6:C18 - (B6:B18*G22+G24))^2)/SUM((C6:C18 - H9)^2)</f>
         <v>0.941730429664509</v>
       </c>
@@ -4951,12 +5090,12 @@
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="45"/>
       <c r="E28" s="34" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G28" s="22" t="n">
         <f aca="false">1-(1-G26)*(G7-1)/(G7-1-1)</f>
         <v>0.936433195997646</v>
       </c>
@@ -4965,26 +5104,26 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="45"/>
       <c r="E29" s="34" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="21" t="n">
-        <f aca="false" t="array" ref="G29:G29">SQRT(SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-1))</f>
-        <v>38.7491935399951</v>
+        <v>144</v>
+      </c>
+      <c r="G29" s="22" t="n">
+        <f aca="false" t="array" ref="G29:G29">SQRT(SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-2))</f>
+        <v>40.4722126896961</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="45"/>
       <c r="E30" s="34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="21" t="n">
+        <v>144</v>
+      </c>
+      <c r="G30" s="22" t="n">
         <f aca="false" t="array" ref="G30:G30">SUM((C6:C18 - (B6:B18*G22+G24))^2)/(G7-2)</f>
         <v>1638</v>
       </c>
@@ -5150,10 +5289,10 @@
     <tabColor rgb="FF1E88E5"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O35" activeCellId="0" sqref="O35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5174,7 +5313,7 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="45"/>
       <c r="B2" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -5188,18 +5327,18 @@
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="45"/>
       <c r="B4" s="47" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C4" s="47"/>
       <c r="E4" s="49" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="K4" s="49" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
@@ -5207,35 +5346,35 @@
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="52" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5799,40 +5938,40 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45"/>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="45"/>
-      <c r="B20" s="23" t="n">
+      <c r="B20" s="20" t="n">
         <f aca="false">SUM(B6:B18)</f>
         <v>78</v>
       </c>
-      <c r="C20" s="21" t="n">
+      <c r="C20" s="22" t="n">
         <f aca="false">SUM(C6:C18)</f>
         <v>2327</v>
       </c>
@@ -5857,6 +5996,10 @@
         <v>309218</v>
       </c>
       <c r="J20" s="56"/>
+      <c r="K20" s="56" t="n">
+        <f aca="false">SUMSQ(K6:K18)</f>
+        <v>707733</v>
+      </c>
       <c r="M20" s="56" t="n">
         <f aca="false">SUM(M6:M18)</f>
         <v>18018</v>
@@ -5867,11 +6010,11 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="E21" s="34" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F21" s="48"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="21" t="n">
+      <c r="H21" s="22" t="n">
         <f aca="false">H20/(B24-1)</f>
         <v>15.1666666666667</v>
       </c>
@@ -5879,17 +6022,17 @@
         <f aca="false">I20/(C24-1)</f>
         <v>25768.1666666667</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="45"/>
       <c r="B22" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="17"/>
       <c r="E22" s="34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="57" t="n">
@@ -5898,84 +6041,84 @@
       </c>
       <c r="H22" s="48"/>
       <c r="I22" s="58"/>
-      <c r="J22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45"/>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="57"/>
       <c r="H23" s="48"/>
       <c r="I23" s="57"/>
-      <c r="J23" s="21" t="n">
+      <c r="J23" s="22" t="n">
         <f aca="false">G20/SQRT(H20*I20)</f>
         <v>0.970427962120068</v>
       </c>
-      <c r="M23" s="21"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="45"/>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="20" t="n">
         <f aca="false">COUNT(B6:B18)</f>
         <v>13</v>
       </c>
-      <c r="C24" s="21" t="n">
+      <c r="C24" s="22" t="n">
         <f aca="false">COUNT(C6:C18)</f>
         <v>13</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="57"/>
       <c r="H24" s="48"/>
       <c r="I24" s="57"/>
-      <c r="J24" s="21" t="n">
+      <c r="J24" s="22" t="n">
         <f aca="false">G20/H20</f>
         <v>40</v>
       </c>
-      <c r="M24" s="21"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="E25" s="34" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="57"/>
       <c r="H25" s="48"/>
       <c r="I25" s="57"/>
-      <c r="J25" s="21" t="n">
+      <c r="J25" s="22" t="n">
         <f aca="false">C28-J24*B28</f>
         <v>-61</v>
       </c>
-      <c r="M25" s="21"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="45"/>
       <c r="B26" s="17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C26" s="17"/>
       <c r="E26" s="34" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="57"/>
       <c r="H26" s="48"/>
       <c r="I26" s="57"/>
-      <c r="J26" s="21"/>
+      <c r="J26" s="22"/>
       <c r="M26" s="58" t="n">
         <f aca="false">1-M20/I20</f>
         <v>0.941730429664509</v>
@@ -5984,46 +6127,46 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="45"/>
       <c r="B27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
-      <c r="J27" s="21"/>
+      <c r="J27" s="22"/>
       <c r="M27" s="58" t="n">
-        <f aca="false">SQRT(M20/(B24-1))</f>
-        <v>38.7491935399951</v>
+        <f aca="false">SQRT(M20/(B24-2))</f>
+        <v>40.4722126896961</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="45"/>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="20" t="n">
         <f aca="false">AVERAGE(B6:B18)</f>
         <v>6</v>
       </c>
-      <c r="C28" s="21" t="n">
+      <c r="C28" s="22" t="n">
         <f aca="false">AVERAGE(C6:C18)</f>
         <v>179</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
-      <c r="J28" s="21"/>
+      <c r="J28" s="22"/>
       <c r="M28" s="58" t="n">
         <f aca="false">M20/(B24-2)</f>
         <v>1638</v>
@@ -6038,8 +6181,10 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="45"/>
     </row>
-    <row r="31" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="45"/>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2"/>
@@ -6107,15 +6252,11 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B4:C4"/>
@@ -6151,8 +6292,7 @@
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="2.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.76"/>
@@ -6227,7 +6367,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -6237,27 +6377,27 @@
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K6" s="4"/>
     </row>
@@ -6279,7 +6419,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H7" s="35" t="n">
         <f aca="false">MIN(x_sample_2)</f>
@@ -6287,7 +6427,7 @@
       </c>
       <c r="I7" s="36"/>
       <c r="J7" s="37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -6309,7 +6449,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="34" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H8" s="35" t="n">
         <f aca="false">MIN(y_sample_2)</f>
@@ -6317,7 +6457,7 @@
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -6339,7 +6479,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H9" s="35" t="n">
         <f aca="false">MAX(x_sample_2)</f>
@@ -6347,7 +6487,7 @@
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -6369,7 +6509,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H10" s="35" t="n">
         <f aca="false">MAX(y_sample_2)</f>
@@ -6377,7 +6517,7 @@
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="37" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -6399,7 +6539,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H11" s="35" t="n">
         <f aca="false">MAX(x_sample_2)-MIN(x_sample_2)</f>
@@ -6407,7 +6547,7 @@
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -6429,7 +6569,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="34" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H12" s="35" t="n">
         <f aca="false">MAX(y_sample_2)-MIN(y_sample_2)</f>
@@ -6437,7 +6577,7 @@
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="37" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -6459,7 +6599,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="34" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H13" s="35" t="n">
         <f aca="false">MEDIAN(x_sample_2)</f>
@@ -6467,7 +6607,7 @@
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="37" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -6489,7 +6629,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="34" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H14" s="35" t="n">
         <f aca="false">MEDIAN(y_sample_2)</f>
@@ -6497,7 +6637,7 @@
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="37" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -6519,7 +6659,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="34" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H15" s="35" t="e">
         <f aca="false">MODE(B7:B19)</f>
@@ -6527,7 +6667,7 @@
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="37" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -6549,7 +6689,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="34" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H16" s="35" t="e">
         <f aca="false">MODE(C7:C19)</f>
@@ -6557,7 +6697,7 @@
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="37" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K16" s="4"/>
     </row>
@@ -6579,7 +6719,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H17" s="35" t="n">
         <f aca="false">INDEX(x_sample_2, MATCH(MAX(x_freq), x_freq, 0))</f>
@@ -6587,7 +6727,7 @@
       </c>
       <c r="I17" s="39"/>
       <c r="J17" s="40" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -6609,7 +6749,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="34" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H18" s="35" t="n">
         <f aca="false">INDEX(y_sample_2, MATCH(MAX(y_freq), y_freq, 0))</f>
@@ -6617,7 +6757,7 @@
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="40" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K18" s="4"/>
     </row>
@@ -6639,7 +6779,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="34" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H19" s="38" t="n">
         <f aca="false">_xlfn.STDEV.S(x_sample_2) / SQRT(COUNT(x_sample_2))</f>
@@ -6647,7 +6787,7 @@
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="40" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -6659,7 +6799,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="4"/>
       <c r="G20" s="34" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H20" s="38" t="n">
         <f aca="false">_xlfn.STDEV.S(y_sample_2) / SQRT(COUNT(y_sample_2))</f>
@@ -6667,7 +6807,7 @@
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K20" s="4"/>
     </row>
@@ -6679,7 +6819,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="4"/>
       <c r="G21" s="34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H21" s="38" t="n">
         <f aca="false">KURT(x_sample_2)</f>
@@ -6687,7 +6827,7 @@
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="40" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K21" s="4"/>
     </row>
@@ -6699,7 +6839,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="4"/>
       <c r="G22" s="34" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H22" s="38" t="n">
         <f aca="false">KURT(y_sample_2)</f>
@@ -6707,7 +6847,7 @@
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="40" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K22" s="4"/>
     </row>
@@ -6719,7 +6859,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H23" s="38" t="n">
         <f aca="false">SKEW(x_sample_2)</f>
@@ -6727,7 +6867,7 @@
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="40" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K23" s="4"/>
     </row>
@@ -6739,7 +6879,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="34" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H24" s="38" t="n">
         <f aca="false">SKEW(y_sample_2)</f>
@@ -6747,7 +6887,7 @@
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="40" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -6759,7 +6899,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H25" s="38" t="n">
         <f aca="false">COUNT(x_sample_2)</f>
@@ -6767,7 +6907,7 @@
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -6779,7 +6919,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
       <c r="G26" s="34" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H26" s="38" t="n">
         <f aca="false">SQRT((24*(H25*(H25-2)*(H25-3)))/((H25+1)*(H25+3)*(H25-1)^2))</f>
@@ -6787,7 +6927,7 @@
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="40" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K26" s="4"/>
     </row>
@@ -6799,7 +6939,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H27" s="38" t="n">
         <f aca="false">SQRT((6*H25*(H25-1))/((H25-2)*(H25+1)*(H25+3)))</f>
@@ -6807,7 +6947,7 @@
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="40" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K27" s="4"/>
     </row>
@@ -6819,7 +6959,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H28" s="38" t="n">
         <f aca="false">SQRT(4*(H25^2-1)*H27^2/((H25-3)*(H25+5)))</f>
@@ -6827,7 +6967,7 @@
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="40" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K28" s="4"/>
     </row>
@@ -6902,7 +7042,7 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="45"/>
       <c r="B2" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
@@ -6927,20 +7067,20 @@
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="45"/>
       <c r="B4" s="59" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C4" s="60"/>
       <c r="E4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="59" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K4" s="61"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="S4" s="61"/>
       <c r="T4" s="2"/>
@@ -6950,17 +7090,17 @@
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E5" s="2"/>
       <c r="I5" s="45"/>
       <c r="J5" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M5" s="2"/>
       <c r="Q5" s="45"/>
       <c r="R5" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="U5" s="2"/>
       <c r="Y5" s="2"/>
@@ -6977,26 +7117,26 @@
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="45"/>
       <c r="B7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="I7" s="45"/>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M7" s="2"/>
       <c r="Q7" s="45"/>
       <c r="R7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="U7" s="2"/>
       <c r="Y7" s="2"/>
@@ -7004,7 +7144,7 @@
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="45"/>
       <c r="B8" s="62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>5</v>
@@ -7012,7 +7152,7 @@
       <c r="E8" s="2"/>
       <c r="I8" s="45"/>
       <c r="J8" s="62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K8" s="12" t="n">
         <v>5</v>
@@ -7020,7 +7160,7 @@
       <c r="M8" s="2"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="S8" s="12" t="n">
         <v>5</v>
@@ -7031,7 +7171,7 @@
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="45"/>
       <c r="B9" s="62" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>4</v>
@@ -7039,7 +7179,7 @@
       <c r="E9" s="2"/>
       <c r="I9" s="45"/>
       <c r="J9" s="62" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K9" s="12" t="n">
         <v>4</v>
@@ -7047,7 +7187,7 @@
       <c r="M9" s="2"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="62" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="S9" s="12" t="n">
         <v>4</v>
@@ -7062,7 +7202,7 @@
       <c r="E10" s="2"/>
       <c r="I10" s="45"/>
       <c r="J10" s="62" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K10" s="12" t="n">
         <v>3</v>
@@ -7070,7 +7210,7 @@
       <c r="M10" s="2"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="62" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="S10" s="12" t="n">
         <v>3</v>
@@ -7089,7 +7229,7 @@
       <c r="M11" s="2"/>
       <c r="Q11" s="45"/>
       <c r="R11" s="62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="S11" s="12" t="n">
         <v>2</v>
@@ -7109,54 +7249,54 @@
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="45"/>
       <c r="B13" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I13" s="45"/>
       <c r="J13" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="45"/>
       <c r="R13" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Y13" s="2"/>
     </row>
@@ -7171,9 +7311,9 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="21" t="n">
+        <v>224</v>
+      </c>
+      <c r="G14" s="22" t="n">
         <f aca="false">SUM(B14:B26)</f>
         <v>78</v>
       </c>
@@ -7188,9 +7328,9 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="O14" s="21" t="n">
+        <v>224</v>
+      </c>
+      <c r="O14" s="22" t="n">
         <f aca="false">SUM(J14:J26)</f>
         <v>78</v>
       </c>
@@ -7205,9 +7345,9 @@
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="W14" s="21" t="n">
+        <v>224</v>
+      </c>
+      <c r="W14" s="22" t="n">
         <f aca="false">SUM(R14:R26)</f>
         <v>78</v>
       </c>
@@ -7226,9 +7366,9 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="G15" s="21" t="n">
+        <v>225</v>
+      </c>
+      <c r="G15" s="22" t="n">
         <f aca="false">SUM(C14:C26)</f>
         <v>377</v>
       </c>
@@ -7244,9 +7384,9 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="O15" s="21" t="n">
+        <v>225</v>
+      </c>
+      <c r="O15" s="22" t="n">
         <f aca="false">SUM(K14:K26)</f>
         <v>2327</v>
       </c>
@@ -7262,9 +7402,9 @@
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="W15" s="21" t="n">
+        <v>225</v>
+      </c>
+      <c r="W15" s="22" t="n">
         <f aca="false">SUM(S14:S26)</f>
         <v>14495</v>
       </c>
@@ -7283,9 +7423,9 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="21" t="n">
+        <v>226</v>
+      </c>
+      <c r="G16" s="22" t="n">
         <f aca="false">COUNT(B14:B26)</f>
         <v>13</v>
       </c>
@@ -7301,9 +7441,9 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="O16" s="21" t="n">
+        <v>226</v>
+      </c>
+      <c r="O16" s="22" t="n">
         <f aca="false">COUNT(J14:J26)</f>
         <v>13</v>
       </c>
@@ -7319,9 +7459,9 @@
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="W16" s="21" t="n">
+        <v>226</v>
+      </c>
+      <c r="W16" s="22" t="n">
         <f aca="false">COUNT(R14:R26)</f>
         <v>13</v>
       </c>
@@ -7340,9 +7480,9 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="21" t="n">
+        <v>227</v>
+      </c>
+      <c r="G17" s="22" t="n">
         <f aca="false">COUNT(C14:C26)</f>
         <v>13</v>
       </c>
@@ -7358,9 +7498,9 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="O17" s="21" t="n">
+        <v>227</v>
+      </c>
+      <c r="O17" s="22" t="n">
         <f aca="false">COUNT(K14:K26)</f>
         <v>13</v>
       </c>
@@ -7376,9 +7516,9 @@
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="W17" s="21" t="n">
+        <v>227</v>
+      </c>
+      <c r="W17" s="22" t="n">
         <f aca="false">COUNT(S14:S26)</f>
         <v>13</v>
       </c>
@@ -7397,13 +7537,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="21" t="n">
+        <v>228</v>
+      </c>
+      <c r="G18" s="22" t="n">
         <f aca="false">AVERAGE(B14:B26)</f>
         <v>6</v>
       </c>
-      <c r="H18" s="21" t="n">
+      <c r="H18" s="22" t="n">
         <f aca="false">SUM(B14:B26)/COUNT(B14:B26)</f>
         <v>6</v>
       </c>
@@ -7418,13 +7558,13 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="O18" s="21" t="n">
+        <v>228</v>
+      </c>
+      <c r="O18" s="22" t="n">
         <f aca="false">AVERAGE(J14:J26)</f>
         <v>6</v>
       </c>
-      <c r="P18" s="21" t="n">
+      <c r="P18" s="22" t="n">
         <f aca="false">SUM(J14:J26)/COUNT(J14:J26)</f>
         <v>6</v>
       </c>
@@ -7439,13 +7579,13 @@
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="W18" s="21" t="n">
+        <v>228</v>
+      </c>
+      <c r="W18" s="22" t="n">
         <f aca="false">AVERAGE(R14:R26)</f>
         <v>6</v>
       </c>
-      <c r="X18" s="21" t="n">
+      <c r="X18" s="22" t="n">
         <f aca="false">SUM(R14:R26)/COUNT(R14:R26)</f>
         <v>6</v>
       </c>
@@ -7463,13 +7603,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="21" t="n">
+        <v>229</v>
+      </c>
+      <c r="G19" s="22" t="n">
         <f aca="false">AVERAGE(C14:C26)</f>
         <v>29</v>
       </c>
-      <c r="H19" s="21" t="n">
+      <c r="H19" s="22" t="n">
         <f aca="false">SUM(C14:C26)/COUNT(C14:C26)</f>
         <v>29</v>
       </c>
@@ -7484,13 +7624,13 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="O19" s="21" t="n">
+        <v>229</v>
+      </c>
+      <c r="O19" s="22" t="n">
         <f aca="false">AVERAGE(K14:K26)</f>
         <v>179</v>
       </c>
-      <c r="P19" s="21" t="n">
+      <c r="P19" s="22" t="n">
         <f aca="false">SUM(K14:K26)/COUNT(K14:K26)</f>
         <v>179</v>
       </c>
@@ -7505,13 +7645,13 @@
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="W19" s="21" t="n">
+        <v>229</v>
+      </c>
+      <c r="W19" s="22" t="n">
         <f aca="false">AVERAGE(S14:S26)</f>
         <v>1115</v>
       </c>
-      <c r="X19" s="21" t="n">
+      <c r="X19" s="22" t="n">
         <f aca="false">SUM(S14:S26)/COUNT(S14:S26)</f>
         <v>1115</v>
       </c>
@@ -7529,13 +7669,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="21" t="n">
+        <v>230</v>
+      </c>
+      <c r="G20" s="22" t="n">
         <f aca="false">_xlfn.VAR.S(B14:B26)</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="H20" s="21" t="n">
+      <c r="H20" s="22" t="n">
         <f aca="false" t="array" ref="H20:H20">SUM(POWER(B14:B26 - H18,2))/(COUNT(B14:B26)-1)</f>
         <v>15.1666666666667</v>
       </c>
@@ -7550,13 +7690,13 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="O20" s="21" t="n">
+        <v>230</v>
+      </c>
+      <c r="O20" s="22" t="n">
         <f aca="false">_xlfn.VAR.S(J14:J26)</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="P20" s="21" t="n">
+      <c r="P20" s="22" t="n">
         <f aca="false" t="array" ref="P20:P20">SUM(POWER(J14:J26 - P18,2))/(COUNT(J14:J26)-1)</f>
         <v>15.1666666666667</v>
       </c>
@@ -7571,13 +7711,13 @@
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="W20" s="21" t="n">
+        <v>230</v>
+      </c>
+      <c r="W20" s="22" t="n">
         <f aca="false">_xlfn.VAR.S(R14:R26)</f>
         <v>15.1666666666667</v>
       </c>
-      <c r="X20" s="21" t="n">
+      <c r="X20" s="22" t="n">
         <f aca="false" t="array" ref="X20:X20">SUM(POWER(R14:R26 - X18,2))/(COUNT(R14:R26)-1)</f>
         <v>15.1666666666667</v>
       </c>
@@ -7595,13 +7735,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="21" t="n">
+        <v>231</v>
+      </c>
+      <c r="G21" s="22" t="n">
         <f aca="false">_xlfn.VAR.S(C14:C26)</f>
         <v>242.666666666667</v>
       </c>
-      <c r="H21" s="21" t="n">
+      <c r="H21" s="22" t="n">
         <f aca="false" t="array" ref="H21:H21">SUM(POWER(C14:C26 - H19,2))/(COUNT(C14:C26)-1)</f>
         <v>242.666666666667</v>
       </c>
@@ -7616,13 +7756,13 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="O21" s="21" t="n">
+        <v>231</v>
+      </c>
+      <c r="O21" s="22" t="n">
         <f aca="false">_xlfn.VAR.S(K14:K26)</f>
         <v>25768.1666666667</v>
       </c>
-      <c r="P21" s="21" t="n">
+      <c r="P21" s="22" t="n">
         <f aca="false" t="array" ref="P21:P21">SUM(POWER(K14:K26 - P19,2))/(COUNT(K14:K26)-1)</f>
         <v>25768.1666666667</v>
       </c>
@@ -7637,13 +7777,13 @@
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="W21" s="21" t="n">
+        <v>231</v>
+      </c>
+      <c r="W21" s="22" t="n">
         <f aca="false">_xlfn.VAR.S(S14:S26)</f>
         <v>1680763.5</v>
       </c>
-      <c r="X21" s="21" t="n">
+      <c r="X21" s="22" t="n">
         <f aca="false" t="array" ref="X21:X21">SUM(POWER(S14:S26 - X19,2))/(COUNT(S14:S26)-1)</f>
         <v>1680763.5</v>
       </c>
@@ -7661,13 +7801,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" s="21" t="n">
+        <v>232</v>
+      </c>
+      <c r="G22" s="22" t="n">
         <f aca="false">_xlfn.STDEV.S(B14:B26)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="H22" s="21" t="n">
+      <c r="H22" s="22" t="n">
         <f aca="false">SQRT(H20)</f>
         <v>3.89444048184931</v>
       </c>
@@ -7682,13 +7822,13 @@
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="O22" s="21" t="n">
+        <v>232</v>
+      </c>
+      <c r="O22" s="22" t="n">
         <f aca="false">_xlfn.STDEV.S(J14:J26)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="P22" s="21" t="n">
+      <c r="P22" s="22" t="n">
         <f aca="false">SQRT(P20)</f>
         <v>3.89444048184931</v>
       </c>
@@ -7703,13 +7843,13 @@
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="W22" s="21" t="n">
+        <v>232</v>
+      </c>
+      <c r="W22" s="22" t="n">
         <f aca="false">_xlfn.STDEV.S(R14:R26)</f>
         <v>3.89444048184931</v>
       </c>
-      <c r="X22" s="21" t="n">
+      <c r="X22" s="22" t="n">
         <f aca="false">SQRT(X20)</f>
         <v>3.89444048184931</v>
       </c>
@@ -7727,13 +7867,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="G23" s="21" t="n">
+        <v>233</v>
+      </c>
+      <c r="G23" s="22" t="n">
         <f aca="false">_xlfn.STDEV.S(C14:C26)</f>
         <v>15.5777619273972</v>
       </c>
-      <c r="H23" s="21" t="n">
+      <c r="H23" s="22" t="n">
         <f aca="false">SQRT(H21)</f>
         <v>15.5777619273972</v>
       </c>
@@ -7748,13 +7888,13 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="O23" s="21" t="n">
+        <v>233</v>
+      </c>
+      <c r="O23" s="22" t="n">
         <f aca="false">_xlfn.STDEV.S(K14:K26)</f>
         <v>160.524660618444</v>
       </c>
-      <c r="P23" s="21" t="n">
+      <c r="P23" s="22" t="n">
         <f aca="false">SQRT(P21)</f>
         <v>160.524660618444</v>
       </c>
@@ -7769,13 +7909,13 @@
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="W23" s="21" t="n">
+        <v>233</v>
+      </c>
+      <c r="W23" s="22" t="n">
         <f aca="false">_xlfn.STDEV.S(S14:S26)</f>
         <v>1296.44263274547</v>
       </c>
-      <c r="X23" s="21" t="n">
+      <c r="X23" s="22" t="n">
         <f aca="false">SQRT(X21)</f>
         <v>1296.44263274547</v>
       </c>
@@ -7793,13 +7933,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="21" t="n">
+        <v>44</v>
+      </c>
+      <c r="G24" s="22" t="n">
         <f aca="false">_xlfn.COVARIANCE.S(B14:B26,C14:C26)</f>
         <v>60.6666666666667</v>
       </c>
-      <c r="H24" s="21" t="n">
+      <c r="H24" s="22" t="n">
         <f aca="false" t="array" ref="H24:H24">SUM((B14:B26-H18)*(C14:C26-H19))/(COUNT(B14:B26)-1)</f>
         <v>60.6666666666667</v>
       </c>
@@ -7814,13 +7954,13 @@
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="21" t="n">
+        <v>44</v>
+      </c>
+      <c r="O24" s="22" t="n">
         <f aca="false">_xlfn.COVARIANCE.S(J14:J26,K14:K26)</f>
         <v>606.666666666667</v>
       </c>
-      <c r="P24" s="21" t="n">
+      <c r="P24" s="22" t="n">
         <f aca="false" t="array" ref="P24:P24">SUM((J14:J26-P18)*(K14:K26-P19))/(COUNT(J14:J26)-1)</f>
         <v>606.666666666667</v>
       </c>
@@ -7835,13 +7975,13 @@
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="21" t="n">
+        <v>44</v>
+      </c>
+      <c r="W24" s="22" t="n">
         <f aca="false">_xlfn.COVARIANCE.S(R14:R26,S14:S26)</f>
         <v>4641</v>
       </c>
-      <c r="X24" s="21" t="n">
+      <c r="X24" s="22" t="n">
         <f aca="false" t="array" ref="X24:X24">SUM((R14:R26-X18)*(S14:S26-X19))/(COUNT(R14:R26)-1)</f>
         <v>4641</v>
       </c>
@@ -7859,13 +7999,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="21" t="n">
+        <v>149</v>
+      </c>
+      <c r="G25" s="22" t="n">
         <f aca="false">PEARSON(B14:B26,C14:C26)</f>
         <v>1</v>
       </c>
-      <c r="H25" s="21" t="n">
+      <c r="H25" s="22" t="n">
         <f aca="false">H24/(H22*H23)</f>
         <v>1</v>
       </c>
@@ -7880,13 +8020,13 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="O25" s="21" t="n">
+        <v>149</v>
+      </c>
+      <c r="O25" s="22" t="n">
         <f aca="false">PEARSON(J14:J26,K14:K26)</f>
         <v>0.970427962120068</v>
       </c>
-      <c r="P25" s="21" t="n">
+      <c r="P25" s="22" t="n">
         <f aca="false">P24/(P22*P23)</f>
         <v>0.970427962120068</v>
       </c>
@@ -7901,13 +8041,13 @@
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="W25" s="21" t="n">
+        <v>149</v>
+      </c>
+      <c r="W25" s="22" t="n">
         <f aca="false">PEARSON(R14:R26,S14:S26)</f>
         <v>0.919206725655292</v>
       </c>
-      <c r="X25" s="21" t="n">
+      <c r="X25" s="22" t="n">
         <f aca="false">X24/(X22*X23)</f>
         <v>0.919206725655292</v>
       </c>
@@ -7925,8 +8065,8 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="n">
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="n">
         <f aca="false" t="array" ref="H26:H26">SUM((B14:B26 - H18)*(C14:C26 - H19))/SQRT(SUM(POWER(B14:B26 - H18,2))*SUM(POWER(C14:C26 - H19,2)))</f>
         <v>1</v>
       </c>
@@ -7941,8 +8081,8 @@
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21" t="n">
+      <c r="O26" s="22"/>
+      <c r="P26" s="22" t="n">
         <f aca="false" t="array" ref="P26:P26">SUM((J14:J26 - P18)*(K14:K26 - P19))/SQRT(SUM(POWER(J14:J26 - P18,2))*SUM(POWER(K14:K26 - P19,2)))</f>
         <v>0.970427962120068</v>
       </c>
@@ -7957,8 +8097,8 @@
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="34"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21" t="n">
+      <c r="W26" s="22"/>
+      <c r="X26" s="22" t="n">
         <f aca="false" t="array" ref="X26:X26">SUM((R14:R26 - X18)*(S14:S26 - X19))/SQRT(SUM(POWER(R14:R26 - X18,2))*SUM(POWER(S14:S26 - X19,2)))</f>
         <v>0.919206725655292</v>
       </c>
@@ -7970,13 +8110,13 @@
       <c r="C27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="G27" s="21" t="n">
+        <v>234</v>
+      </c>
+      <c r="G27" s="22" t="n">
         <f aca="false">SLOPE(B14:B26,C14:C26)</f>
         <v>0.25</v>
       </c>
-      <c r="H27" s="21" t="n">
+      <c r="H27" s="22" t="n">
         <f aca="false" t="array" ref="H27:H27">SUM((B14:B26 - H18)*(C14:C26 - H19))/SUM(POWER((B14:B26 - H18),2))</f>
         <v>4</v>
       </c>
@@ -7985,13 +8125,13 @@
       <c r="K27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="O27" s="21" t="n">
+        <v>234</v>
+      </c>
+      <c r="O27" s="22" t="n">
         <f aca="false">SLOPE(J14:J26,K14:K26)</f>
         <v>0.0235432607416127</v>
       </c>
-      <c r="P27" s="21" t="n">
+      <c r="P27" s="22" t="n">
         <f aca="false" t="array" ref="P27:P27">SUM((J14:J26 - P18)*(K14:K26 - P19))/SUM(POWER((J14:J26 - P18),2))</f>
         <v>40</v>
       </c>
@@ -8000,13 +8140,13 @@
       <c r="S27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="W27" s="21" t="n">
+        <v>234</v>
+      </c>
+      <c r="W27" s="22" t="n">
         <f aca="false">SLOPE(R14:R26,S14:S26)</f>
         <v>0.00276124511271217</v>
       </c>
-      <c r="X27" s="21" t="n">
+      <c r="X27" s="22" t="n">
         <f aca="false" t="array" ref="X27:X27">SUM((R14:R26 - X18)*(S14:S26 - X19))/SUM(POWER((R14:R26 - X18),2))</f>
         <v>306</v>
       </c>
